--- a/Access_Desktop.suite/Resources/testdata.xlsx
+++ b/Access_Desktop.suite/Resources/testdata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/suganthinatrajan/Eggplant_Testcases/Access_Desktop.suite/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11C62A21-8EC9-7246-9B3A-C40C366EB736}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1974E107-9223-AA4C-8FB6-826733447CEF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19320" activeTab="1" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19260" activeTab="1" xr2:uid="{662A243E-2B0E-4C05-8B32-EC5026EB9CF6}"/>
   </bookViews>
   <sheets>
     <sheet name="CR" sheetId="3" r:id="rId1"/>
@@ -926,7 +926,7 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1034,7 +1034,7 @@
         <v>2</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>29</v>
+        <v>67</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>63</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
